--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H2">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I2">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J2">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.477541333333333</v>
+        <v>0.7682129999999999</v>
       </c>
       <c r="N2">
-        <v>10.432624</v>
+        <v>2.304639</v>
       </c>
       <c r="O2">
-        <v>0.2636819480239456</v>
+        <v>0.06906161725690135</v>
       </c>
       <c r="P2">
-        <v>0.2636819480239456</v>
+        <v>0.06906161725690135</v>
       </c>
       <c r="Q2">
-        <v>6.446986057536001</v>
+        <v>0.2254474691099999</v>
       </c>
       <c r="R2">
-        <v>58.02287451782401</v>
+        <v>2.02902722199</v>
       </c>
       <c r="S2">
-        <v>0.1505950489815008</v>
+        <v>0.01036754453751232</v>
       </c>
       <c r="T2">
-        <v>0.1505950489815007</v>
+        <v>0.01036754453751232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H3">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I3">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J3">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.345896999999999</v>
+        <v>8.345897000000001</v>
       </c>
       <c r="N3">
         <v>25.037691</v>
       </c>
       <c r="O3">
-        <v>0.6328213435950161</v>
+        <v>0.7502881938726906</v>
       </c>
       <c r="P3">
-        <v>0.632821343595016</v>
+        <v>0.7502881938726906</v>
       </c>
       <c r="Q3">
-        <v>15.472391681124</v>
+        <v>2.44927039259</v>
       </c>
       <c r="R3">
-        <v>139.251525130116</v>
+        <v>22.04343353331</v>
       </c>
       <c r="S3">
-        <v>0.3614193612775348</v>
+        <v>0.112633421789257</v>
       </c>
       <c r="T3">
-        <v>0.3614193612775347</v>
+        <v>0.112633421789257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H4">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I4">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J4">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.364955333333333</v>
+        <v>2.009478333333333</v>
       </c>
       <c r="N4">
-        <v>4.094866</v>
+        <v>6.028435</v>
       </c>
       <c r="O4">
-        <v>0.1034967083810384</v>
+        <v>0.180650188870408</v>
       </c>
       <c r="P4">
-        <v>0.1034967083810384</v>
+        <v>0.180650188870408</v>
       </c>
       <c r="Q4">
-        <v>2.530479772824</v>
+        <v>0.5897216064833333</v>
       </c>
       <c r="R4">
-        <v>22.774317955416</v>
+        <v>5.30749445835</v>
       </c>
       <c r="S4">
-        <v>0.05910943841575064</v>
+        <v>0.02711924442569882</v>
       </c>
       <c r="T4">
-        <v>0.05910943841575062</v>
+        <v>0.02711924442569882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.278734</v>
       </c>
       <c r="I5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.477541333333333</v>
+        <v>0.7682129999999999</v>
       </c>
       <c r="N5">
-        <v>10.432624</v>
+        <v>2.304639</v>
       </c>
       <c r="O5">
-        <v>0.2636819480239456</v>
+        <v>0.06906161725690135</v>
       </c>
       <c r="P5">
-        <v>0.2636819480239456</v>
+        <v>0.06906161725690135</v>
       </c>
       <c r="Q5">
-        <v>1.482283446446222</v>
+        <v>0.327446694114</v>
       </c>
       <c r="R5">
-        <v>13.340551018016</v>
+        <v>2.947020247026</v>
       </c>
       <c r="S5">
-        <v>0.03462463641612894</v>
+        <v>0.01505813393377095</v>
       </c>
       <c r="T5">
-        <v>0.03462463641612894</v>
+        <v>0.01505813393377095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.278734</v>
       </c>
       <c r="I6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.345896999999999</v>
+        <v>8.345897000000001</v>
       </c>
       <c r="N6">
         <v>25.037691</v>
       </c>
       <c r="O6">
-        <v>0.6328213435950161</v>
+        <v>0.7502881938726906</v>
       </c>
       <c r="P6">
-        <v>0.632821343595016</v>
+        <v>0.7502881938726906</v>
       </c>
       <c r="Q6">
-        <v>3.557394084799333</v>
+        <v>3.557394084799334</v>
       </c>
       <c r="R6">
-        <v>32.01654676319399</v>
+        <v>32.01654676319401</v>
       </c>
       <c r="S6">
-        <v>0.08309711416556217</v>
+        <v>0.1635921740760143</v>
       </c>
       <c r="T6">
-        <v>0.08309711416556215</v>
+        <v>0.1635921740760143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.278734</v>
       </c>
       <c r="I7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.364955333333333</v>
+        <v>2.009478333333333</v>
       </c>
       <c r="N7">
-        <v>4.094866</v>
+        <v>6.028435</v>
       </c>
       <c r="O7">
-        <v>0.1034967083810384</v>
+        <v>0.180650188870408</v>
       </c>
       <c r="P7">
-        <v>0.1034967083810384</v>
+        <v>0.180650188870408</v>
       </c>
       <c r="Q7">
-        <v>0.5818049310715555</v>
+        <v>0.8565294223655556</v>
       </c>
       <c r="R7">
-        <v>5.236244379644</v>
+        <v>7.70876480129</v>
       </c>
       <c r="S7">
-        <v>0.01359037251057531</v>
+        <v>0.03938880737548592</v>
       </c>
       <c r="T7">
-        <v>0.01359037251057531</v>
+        <v>0.03938880737548592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H8">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.477541333333333</v>
+        <v>0.7682129999999999</v>
       </c>
       <c r="N8">
-        <v>10.432624</v>
+        <v>2.304639</v>
       </c>
       <c r="O8">
-        <v>0.2636819480239456</v>
+        <v>0.06906161725690135</v>
       </c>
       <c r="P8">
-        <v>0.2636819480239456</v>
+        <v>0.06906161725690135</v>
       </c>
       <c r="Q8">
-        <v>3.358975720753778</v>
+        <v>0.9488854304759999</v>
       </c>
       <c r="R8">
-        <v>30.230781486784</v>
+        <v>8.539968874284</v>
       </c>
       <c r="S8">
-        <v>0.07846226262631595</v>
+        <v>0.04363593878561808</v>
       </c>
       <c r="T8">
-        <v>0.07846226262631595</v>
+        <v>0.04363593878561808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H9">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.345896999999999</v>
+        <v>8.345897000000001</v>
       </c>
       <c r="N9">
         <v>25.037691</v>
       </c>
       <c r="O9">
-        <v>0.6328213435950161</v>
+        <v>0.7502881938726906</v>
       </c>
       <c r="P9">
-        <v>0.632821343595016</v>
+        <v>0.7502881938726906</v>
       </c>
       <c r="Q9">
-        <v>8.061346423750665</v>
+        <v>10.30872956791067</v>
       </c>
       <c r="R9">
-        <v>72.55211781375598</v>
+        <v>92.77856611119601</v>
       </c>
       <c r="S9">
-        <v>0.1883048681519191</v>
+        <v>0.4740625980074193</v>
       </c>
       <c r="T9">
-        <v>0.1883048681519191</v>
+        <v>0.4740625980074193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H10">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.364955333333333</v>
+        <v>2.009478333333333</v>
       </c>
       <c r="N10">
-        <v>4.094866</v>
+        <v>6.028435</v>
       </c>
       <c r="O10">
-        <v>0.1034967083810384</v>
+        <v>0.180650188870408</v>
       </c>
       <c r="P10">
-        <v>0.1034967083810384</v>
+        <v>0.180650188870408</v>
       </c>
       <c r="Q10">
-        <v>1.318417636228444</v>
+        <v>2.482078164984445</v>
       </c>
       <c r="R10">
-        <v>11.865758726056</v>
+        <v>22.33870348486</v>
       </c>
       <c r="S10">
-        <v>0.03079689745471244</v>
+        <v>0.1141421370692233</v>
       </c>
       <c r="T10">
-        <v>0.03079689745471243</v>
+        <v>0.1141421370692232</v>
       </c>
     </row>
   </sheetData>
